--- a/deuChatbot/research_result/results/meteor_score/meteor_version_2(2000_500).xlsx
+++ b/deuChatbot/research_result/results/meteor_score/meteor_version_2(2000_500).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6088,61 +6088,3513 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 각각 진행되며, 다음과 같은 특징을 가지고 있습니다:
+1. **모집단위 및 종목**:
+   - 모집단위: 시각디자인 / 산업디자인 / 공예디자인
+   - 종목: 기초디자인, 사고의 전환
+2. **종목별 배점(비율)**:
+   - 기초디자인: 700점 (70%)
+   - 사고의 전환: 300점 (30%)
+3. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+4. **실기주제 및 화지크기**:
+   - 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨
+   - 예시: 
+     - 기초디자인 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+     - 기초디자인 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+   - 화지크기: 켄트지3절
+5. **시험 시간**:
+   - 5시간
+이러한 실기시험은 학생들의 창의성과 표현력을 평가하는 데 중점을 두고 있습니다. 준비할 때는 주제와 관련된 다양한 아이디어를 발전시키며, 제공된 사물과 이미지에 대한 표현을 최대한 활용해야 합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.3990133138301413</v>
+        <v>0.4867996428129278</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목은 시각디자인 / 산업디자인 / 공예디자인이 있으며, 각 종목의 실기종목과 관련된 정보는 다음과 같습니다:
+1. **시각디자인**:
+   - **실기종목**: 기초디자인
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+     - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+     - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+2. **산업디자인**:
+   - **실기종목**: 사고의 전환
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+     - 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+     - 주제B: 바이러스, 자유, 여행, 계절, 꿈
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+3. **공예디자인**:
+   - **실기종목**: 정보가 제공되지 않았습니다 (기초디자인 또는 사고의 전환 중 하나일 가능성이 있습니다).
+이러한 준비물과 주제는 당일 추첨을 통해 결정되므로, 학생들은 다양한 주제에 대비하여 광범위하게 준비하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.293977160429408</v>
+        <v>0.5768831836196046</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회가 있습니다:
+1. 배드민턴(남)의 경우:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 학생들의 실력을 평가합니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.7963508911014767</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+1. 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+2. 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+두 가지 주제 중에서 각각 1개씩 선택하여 연결된 주제로 만듭니다. 예를 들어 "잠자리와 저울"과 같은 주제를 만들 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.7352143833091154</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도에 대한 정보를 바탕으로, 학생부교과 전형에서 출결 점수는 일반적으로 반영되지 않습니다. 
+특히, "전형요소 반영비율" 항목을 살펴보면, 대부분의 경우 학생부 교과 외에는 출결, 서류, 면접 등의 요소가 포함되나, 실질적인 점수 반영은 없습니다.
+예를 들어:
+- 나군 학생부교과(평생학습자전형): 학생부 교과 0%, 출결 0%, 서류 70%, 면접 30%
+- 나군 학생부교과(성인학습자(정원내)전형): 학생부 교과 0%, 출결 0%, 서류 70%, 면접 30%
+따라서, 현재 정보로는 학생부교과 전형에서 출결 점수가 반영되지 않는 것으로 보입니다. 하지만 특정 모집단위나 전형에 따라细微
+</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.07821293616337031</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.8289241622574957</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 섹션에서 확인할 수 있습니다. 해당 부분에 따르면, 단과대학은 인문사회과학대학이며, 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이며, 모집인원은 28명입니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.2041178558750444</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다. 의료보건생활대학 간호학과의 나군 일반 학생 전형에서 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5353535353535354</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이 점수들은 각 등급별로 대략적인 변환표를 나타낸 것입니다. 실제 변환은 공정한 평가를 위해 정확히 동일하지 않을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.5328019880488184</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예 Kunstschüler는 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 
+고교유형별 지원자격에서 다음과 같이 명시되어 있습니다:
+- 특수목적고의 예술고는 지원 불가능입니다.
+따라서 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 다른 전형이나 유형을 고려해 보실 필요가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.3885766193002508</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 거리가 268~271cm, 여는 거리가 218~221cm이며, 해당 등급의 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.4138147566718995</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경기지도학과에서 실기/실적 위주 전형인 "다군 실기/실적(일반학생전형)"의 경우, 출결 반영 비율은 12%입니다.
+이 정보는 다음과 같은 문단에서 얻어졌습니다:
+"전형요소 반영비율에서 전형 유형은 실기/실적 위주이며, 전형명은 다군 실기/실적(일반학생전형) 경기지도학과이며, 모집 인원은 7이며, 사정 단계은 일괄 합산이며, 전형요소 반영비율(%)의 학생부 교과은 18%이며, 전형요소 반영비율(%)의 출결은 12%이며, 전형요소 반영비율(%)의 서류은 70%이며, 전형요소 반영비율(%)의 면접은 0%이며, 전형요소 반영비율(%)의 실기은 0%이며, 전형요소 반영비율(%)의 수능은 0%이며, 수능최저기준은 수능최저기준 없음입니다."
+따라서 경기지도학과에서 출결은 전체 평가 요소 중 12%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.0399925395083249</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다.
+디자인조형학과는 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 실기종목은 기초디자인과 사고의 전환으로 구성되어 있습니다. 각 종목별로 700점(70%)이 배점됩니다.
+참고로, 디자인조형학과는 나군 수능(일반학생전형)에서도 모집되며, 이 경우 실기고사는 수능 점수와 함께 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.03264417845484222</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보는 제공된 데이터에서 확인할 수 없습니다. 하지만, 일반적으로 수능 최저기준이 명시되지 않은 경우 해당 학과는 수능 최저기준을 갖추지 않을 수도 있습니다.
+만약 더 정확한 정보를 얻고자 한다면, 동의대학교의 공식 웹사이트인 `https://ipsi.deu.ac.kr/main.do`를 방문하여 최신 입학 안내나 전형요강을 확인해보시는 것이 좋습니다. 해당 페이지에서 특정 학과의 전형 요건을 자세히 확인할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.0436107854630715</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같습니다:
+1. 심리학과 (신설)
+2. 스마트항만물류학과 (신설) 
+3. 창업투자경영학과 (신설)
+4. 라이프융합학부 (신설)(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+위와 같이 2024학년도에 신설된 학과들이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.6682624361303949</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 성인학습자전형에 적용되는 일반적인 비율이며, 이는 학생부 교과성적 외에도 지원자의 실질적인 능력과 적합성을 평가하기 위한 중요한 요소로 사용됩니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.3192653750689465</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학과 ICT융합공과대학의 모집단위에서 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여합니다.
+이 정보는 "수능 반영영역 및 가산점" 섹션에서 확인할 수 있습니다:
+- 모집단위은 공과대학, ICT융합공과대학 모집단위이며,
+- 수능 반영영역은 국어(화법과작문 or 언어와매체) / 수학 (미적분 or 기하) / 영어 / 탐구(사회탐구 or 과학탐구 중 영역 관계없이 2개 과목)이며,
+- 가산점은 수학(미적분 또는 기하) 응시자 : 수학 취득 표준점수의 10% 가산점이다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.3197211980064935</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다:
+- **반영 영역**: 국어(화법과작문 또는 언어와매체), 수학(확률과통계 또는 미적분 또는 기하), 영어, 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 중 상위 3개 영역
+- **반영 비율**: 각 영역은 25%씩 반영됩니다.
+따라서 총합계는 다음과 같습니다:
+- 국어: 25%
+- 수학: 25%
+- 영어: 25%
+- 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합): 25%
+이렇게 반영된 점수를 합산하여 최종 성적을 산출합니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.1095553359683794</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024년 1월 16일(화)입니다.
+관련 정보:
+- **전형명**: 가군 실기고사 (레저스포츠학과, 태권도학과)
+- **일정**: 2024. 01. 16.(화)
+참고로, 이 날짜는 대기실 및 입실시간 안내를 포함하여 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+자세한 내용은 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [온라인 지원 사이트](http://www.uwayapply.com)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.1159320477502296</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 모집단위가 실기/실적 전형으로 분류되어 제외됩니다.
+이 점을 고려하여 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 외의 모든 모집단위가 해당 전형에 참여합니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.3145489655172414</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서 수능 최저기준은 없습니다. 
+참조된 정보에 따르면, "전형요소 반영비율" 섹션에서 다음과 같이 언급되어 있습니다:
+- 전형 유형: 수능 위주
+- 전형명: 다군 수능(일반학생전형) 전 모집단위 
+- 수능최저기준: 수능최저기준 없음
+따라서, 2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.1787081339712918</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+위와 같은 학과들이 2024학년도에 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.6168811750051142</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.
+따라서 원서 접수는 2024년 1월 3일부터 1월 6일까지 가능하며, 특히 1월 6일 오후 6시까지 마감됩니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.3396042576573821</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **학생부종합(성인학습자전형)**
+   - **변경 전**: 특성화고 등을 졸업한 재직자
+   - **변경 후**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2. **학생부종합(조기취업형계약학과전형)** 
+   - **변경 전**: 서류(학생부)70%+면접30%
+   - **변경 후**: 서류(학생부)60%+면접40%
+3. **학생부교과성적 반영방법**
+   - **변경 전**: 반영학기 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+                 고교 졸업자 : 1학년 1학기~3학년 2학기
+   - **변경 후**: 반영학기 고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+4. **학생부 교과성적 반영방법**
+   - **변경 전**: 반영과목 전 모집단위(한의예과 제외) 8과목
+   - **변경 후**: 반영과목 전 모집단위(한의예과 제외) 12과목
+5. **진로선택과목 성적반영**
+   - **변경 전**: A: 2등급 B: 4등급 C:6등급
+   - **변경 후**: A: 1등급 B: 3등급 C:5등급
+이러한 변화들은 학생들의 지원 자격, 평가 기준, 그리고 전형 절차에 영향을 미칠 수 있으므로 주의가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.5148278446807592</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 다음과 같습니다:
+- **가군 수능(일반학생전형)**에서는 실기가 반영되지 않습니다. 즉, 실기 비중은 0%입니다.
+- **가군 실기/실적(일반학생전형)**에서는 실기가 반영되며, 이 경우 실기 비중은 70%입니다.
+따라서, 가군 실기/실적 전형에서 실기 비중은 **70%**입니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.2017395566581306</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공을 포함하고 있습니다:
+- 스타트업 창업투자학
+- 뷰티 비즈니스학 
+- 라이프 생활문화학
+这三个专业共同构成了新的Life Fusion College（生活融合学院），旨在培养跨领域的复合型人才。</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.6526761648055449</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과:
+   - 제자리 멀리뛰기 (350점, 35%)
+   - Z-런 (350점, 35%)
+2. 태권도학과:
+   - 동일한 실기고사가 적용될 것으로 보입니다.
+이 외의 학과는 가군 수능(일반학생전형)으로만 지원 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.2372309084288693</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "경기실적우수자전형"은 주로 다음과 같은 학과에 적용됩니다:
+1. **디자인조형학과 (시각디자인, 산업디자인, 공예디자인)**: 2024년 1월 17일 실기고사를 치릅니다.
+2. **체육학과**: 2024년 1월 17일 실기고사를 치릅니다.
+이 외에도 특정 학과에서 실기/실적 위주 전형을 시행할 수 있으므로, 공식 입학 안내 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 확인하시거나, 해당 학과의 상세 정보를 찾아보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.2307863919134533</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 세 가지 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이 학부는 6개의 전공으로 구성되어 있으며, 각 전공별로 다양한 교육 프로그램과 특성화된 코스를 제공할 예정입니다.
+참고로, 이 정보는 2024학년도에 신설되는 내용이며, 현재 운영 중인 전공들과 별개로 이루어져 있습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.2798017568850902</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是韩国人还是其他地区的人？不过根据你提供的信息，如果你是特招生（特殊教育需求学生），那么你可以参考以下内容：
+- 对于加军和纳军的一般学生高考（普通学生录取）：
+  - 普通高中、自治高中、科学高中、国际高中、外语高中可以申请。
+  - 艺术高中、体育高中也可以申请。
+  - 技工高中可以申请。
+  - 特殊教育需求高中（职业）、特殊教育需求高中（替代）可以申请。
+  - 天才学校可以申请。
+  - 其他学历认证高中可以申请。
+  - 广播电视高中可以申请。
+  - 各种学校可以申请。
+  - 高等教育自学考试可以申请。
+  - 外国高中可以申请。
+- 对于纳军的成人学习者（正选和非正选）以及在职人员：
+  - 普通高中、自治高中、科学高中、国际高中、外语高中可以申请。
+  - 艺术高中、体育高中也可以申请。
+  - 技工高中可以申请。
+  - 特殊教育需求高中（职业）、特殊教育需求高中（替代）可以申请。
+  - 天才学校不可以申请。
+  - 其他学历认证高中可以申请。
+  - 广播电视高中可以申请。
+  - 各种学校可以申请。
+  - 高等教育自学考试可以申请。
+  - 外国高中不可以申请。
+所以，如果你是特招生（特殊教育需求学生），你可以尝试申请纳军的一般学生高考（普通学生录取）和成人学习者（正选和非正选）以及在职人员的相应专业。建议你访问 https://ipsi.deu.ac.kr/main.do 获取更详细的信息或直接联系学校确认具体要求。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보면, 다음과 같은 정보가 있습니다:
+1. **나군 일반 학생**:
+   - 최대 정원은 7명인 학과는 스마트호스피탈리티학과 (상경대학), 미래형자동차학과 (IT융합부품소재공과대학), 소프트웨어융합학과 (ICT공과대학) 등이 있습니다.
+   - 이들 학과들은 각각 7명의 정원을 가지고 있습니다.
+2. **나군 경기 실적 우수자**:
+   - 해당 항목에 대한 정보는 없습니다.
+3. **나군 농어촌 학생**:
+   - 추가내용 참조로 표시되어 있어, 구체적인 모집인원은 확인되지 않았습니다.
+4. **나군 평생 학습자**:
+   - 해당 항목에 대한 정보는 없습니다.
+5. **나군 성인 학습자(정원내)**:
+   - 해당 항목에 대한 정보는 없습니다.
+6. **나군 성인 학습자(정원외)**:
+   - 해당 항목에 대한 정보는 없습니다.
+7. **나군 재직자**:
+   - 해당 항목에 대한 정보는 없습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 스마트호스피탈리티학과 (상경대학), 미래형자동차학과 (IT융합부품소재공과대학), 소프트웨어융합학과 (ICT공과대학) 등이 각각 7명의 정원을 가지고 있으며, 이들 학과가 가장 많은 모집인원을 차지하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.07357226107226107</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊目的高中（如科学高中、国际高中、外语高中等）的学生，并且符合以下条件之一，则有可能通过동의대학교 (同义大学) 的農村地区学生学部入学考试进行申请：
+1. **6年制课程**：
+   - 在农村（乡镇）地区的中学和高中期间，你本人及父母双方均在该地区居住。
+2. **12年制课程**：
+   - 无论父母是否在农村地区居住，你在整个基础教育阶段（小学、初中、高中）都在农村地区学校就读并居住。
+具体申请资格如下：
+- **6年制课程**：你本人及父母双方均需在农村地区居住。
+- **12年制课程**：只需你自己在整个基础教育阶段在农村地区学校就读并居住即可。
+此外，你需要准备以下材料进行申请：
+- 你的家庭关系证明书（1份）
+- 你的户口簿复印件（父母双方各1份，共3份）
+- 初中和高中的学生手册（各1份），可以通过教育机构、公共机关或自助服务终端获取。
+- 如果父母一方已故，则需要提供死亡证明；如果父母离婚，则需要提供监护方的婚姻关系证明及你的基本身份证明。
+如果你符合上述条件，可以尝试申请。建议访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取更多详细信息和最新的申请指南。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.01392757660167131</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학의 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+또한, 최종등록자들의 경우 평균 점수가 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+따라서, 2024학년도 소프트웨어공학부의 합격자들의 평균 성적은 최초합격자의 경우 약 330.11이고, 최종등록자의 경우 약 317.87입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.1197323386672499</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학의 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.2464088397790055</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정은 다음과 같습니다:
+- 최초 합격자 발표는 2024년 2월 2일(금) 14:00입니다.
+- 이어서 2월 7일부터 2월 13일까지 (은행마감시간 내) 최초 합격자 등록을 받습니다.
+- 다음으로, 2월 14일(수) 9:00에 충원 합격자 1차 발표가 있습니다.
+- 그리고 2월 15일(목) 9:00에는 충원 합격자 2차 발표가 이루어집니다.
+- 마지막으로, 2월 15일(목) 19:00부터 2월 20일(화) 18시까지는 충원 합격자 3차 이후 (개별 전화 통보) 발표가 진행됩니다.
+이러한 일정에 따라 합격자 발표 및 등록 절차가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.3974097126914904</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 질문에 답변하기 위해서는 면접고사의 일정이나 날짜가 필요합니다. 제공된 정보에는 특정 면접일정이 포함되어 있지 않아서, 정확한 날짜를 알려드리기 어렵습니다.
+면접일정과 관련하여 확인해야 할 사항들은 다음과 같습니다:
+1. 공식 웹사이트 (https://ipsi.deu.ac.kr/main.do)에서 최신 정보를 확인하세요.
+2. 입학처 또는 학교 관계자에게 직접 문의해 보세요.
+3. 면접 일정이 포함된 안내서나 알림을 확인하세요.
+일반적으로 면접은 수능 결과 발표 후에 이루어지며, 정확한 날짜는 각 대학에서 공지합니다. 따라서 가장 신뢰할 수 있는 방법은 공식 웹사이트를 방문하거나 학교 관계자에게 문의하는 것입니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.0496484375</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과 최저학력기준 정보가 제공되지 않았습니다. 일반적으로 대학별로 특정 학력 기준이 설정되어 있을 것입니다만, 해당 문서에서는 구체적인 최저학력기준을 언급하지 않았습니다.
+더 정확한 정보를 얻으시려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 공식 입학요건을 확인하시거나, 대학의 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.08802966401539809</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 보면, 대부분의 모집단위에서는 수능 위주로 전형을 실시하며, 수능 최저학력 기준이 없습니다. 
+특히 "전형요소 반영비율" 섹션에서 다음과 같은 내용이 나옵니다:
+- 가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외): 수능최저기준 없음
+- 나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외): 수능최저기준 없음
+- 다군 수능(일반학생전형) 전 모집단위: 수능최저기준 없음
+따라서, 주어진 정보를 바탕으로 볼 때, 정시모집에서 대부분의 단과대학 및 모집단위는 수능 최저학력 기준이 없습니다. 하지만 특정 학과나 전형에 따라 다르게 적용될 수도 있으므로, 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 확인하시거나 추가 정보가 필요하다면 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.04604051565377532</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024학년도의 충원합격자 발표 일정은 다음과 같습니다:
+- **1차 충원합격자 발표**: 2024. 02. 14.(수) 09:00
+- **1차 충원합격자 등록**: 2024. 02. 14.(수) 09:00~16:00
+이후에도 추가적인 충원합격자 발표와 등록 일정이 있을 수 있으므로, 공식 홈페이지를 통해 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.3633431850163173</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024학년도의 추가합격자 발표 일정에 대한 정보는 다음과 같습니다:
+- **충원 합격자 1차 (인터넷) 발표**: 2024. 02. 14.(수) 09:00
+- **충원 합격자 1차 (인터넷) 등록**: 2024. 02. 14.(수) 09:00~16:00
+- **충원 합격자 2차 (인터넷) 발표**: 2024. 02. 15.(목) 09:00
+- **충원 합격자 2차 (인터넷) 등록**: 2024. 02. 15.(목) 09:00~16:00
+따라서 추가합격자 발표는 주로 2월 중순에 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.3283730943280173</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到是否进行额外招生（추가모집）的内容。为了获取准确的信息，建议访问以下网站以获得最新的招生政策和通知：
+https://ipsi.deu.ac.kr/main.do
+您可以查看该网站上的最新公告或联系学校的招生办公室以确认是否有额外的招生计划。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입시에서 평생교육을 받은 학습자들을 위한 특별한 전형입니다. 주요 내용은 다음과 같습니다:
+1. 지원 자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+   - 성인학습자로서 재직 중인 사람
+2. 제출 서류:
+   - 고교 학교생활기록부 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부
+   - 외국고교 졸업(예정)자인 경우, 공증받은 외국고교 졸업(예정)증명서 1부와 공증받은 외국고교 성적증명서 1부
+3. 평가 요소:
+   - 공동체역량 (협업능력)
+   - 학업역량 (학업태도 / 학업성취)
+   - 전공적합성 (열정)
+4. 서류평가 배점:
+   - 공동체역량: 1등급 140점, 2등급 129.5점 등
+   - 학업역량: 1등급 280점, 2등급 259점 등
+   - 전공적합성: 1등급 280점, 2등급 259점 등
+5. 면접평가 배점:
+   - 학업역량: 1등급 180점, 2등급 166.5점 등
+   - 전공적합성: 1등급 120점, 2등급 111점 등
+6. 동점자 처리 기준:
+   - 면접고사 성적 상위자
+   - 서류평가 공동체역량 영역 성적 상위자
+   - 서류평가 전공적합성 영역 성적 상위자
+   - 교과 성적 상위자
+7. 지원 자격 증빙서류:
+   - 4대 보험 가입증명서 (상시근로자 5인 이상 사업체)
+   - 군 의무복무 경력 증명서
+8. 전형요소 반영 비율:
+   - 서류: 70%
+   - 면접: 30%
+평생학습자전형은 평생교육을 받은 성인 학습자를 위한 특별한 기회로, 다양한 경험과 역량을 평가하는 방식으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.289582419636324</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **고교 졸업(예정)자**:
+   - 고등학교 학교생활기록부를 제출해야 합니다.
+   - 학생부 온라인 제공 동의가 필요하지 않습니다.
+2. **검정고시 출신자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부를 제출해야 합니다.
+   - 검정고시 성적증명서 1부도 함께 제출해야 합니다.
+   - 학교생활기록부 대체 서류(제출 여부 선택 가능)를 제출할 수 있습니다.
+3. **외국고교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부
+   - 학교생활기록부 대체 서류(제출 여부 선택 가능)
+   - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부해야 합니다.
+   - 모든 서류는 원본 제출을 원칙으로 하며, 원본 재발급이 불가능한 경우 원본대조필 가능합니다.
+4. **재직자**:
+   - 고등학교 학교생활기록부를 제출해야 합니다.
+   - 지원 자격 증빙서류 (4대 보험 가입자 또는 창업 및 자영업자, 1차 산업 종사자 등)를 제출해야 합니다.
+5. **농어촌학생**:
+   - 6년 과정: 중·고등학교 재학기간 동안 본인과 부모 모두가 농어촌 지역에 거주한 자
+   - 12년 과정: 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수하고 거주한 자
+6. **특수목적고**:
+   - 특수목적고의 예술고, 체육고, 마이스터고 등은 지원 가능합니다.
+7. **기타**:
+   - 검정고시 출신자와 외국고교 졸업(예정)자는 추가 서류 제출 기한이 있습니다 (2024년 2월 16일까지).
+위의 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다. 자세한 내용은 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.04173065341764528</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)과 2024년 1월 17일(수)에 실기고사가 있습니다. 각각의 날짜별로 대기실 및 입실 시간을 안내받으시려면, 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인하시면 됩니다.
+- 2024년 1월 16일(화): 레저스포츠학과와 태권도학과의 실기고사
+- 2024년 1월 17일(수): 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 및 체육학과의 실기고사
+이 정보가 도움이 되길 바랍니다. 더 필요한 사항이 있으시면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.1489081239504563</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같은 종목으로 구성되어 있습니다:
+1. 제자리 멀리뛰기 (240점, 24%)
+2. 메디신볼 던지기 (243점, 23%) 
+3. Z-런 (230점, 23%)
+각 종목별로 다음과 같은 점수 기준이 있습니다:
+등급 1: 제자리 멀리뛰기(cm) 남은 285 이상 / 메디신볼 던지기(m) 남은 11.5 이상 / Z-런 남은 14.20 이하
+등급 2: 제자리 멀리뛰기(cm) 남은 281~284 / 메디신볼 던지기(m) 남은 11.0~11.4 / Z-런 남은 14.21~14.35
+등급 3: 제자리 멀리뛰기(cm) 남은 277~280 / 메디신볼 던지기(m) 남은 10.5~10.9 / Z-런 남은 14.36~14.50
+등급 4: 제자리 멀리뛰기(cm) 남은 277~280 / 메디신볼 던지기(m) 남은 10.0~10.4 / Z-런 남은 14.51~14.65
+등급 5: 제자리 멀리뛰기(cm) 남은 269~272 / 메디신볼 던지기(m) 남은 9.5~9.9 / Z-런 남은 14.66∼14.80
+이러한 점수 기준을 바탕으로 등급이 결정되며, 각 종목의 배점 비율에 따라 최종 점수가 계산됩니다.
+실기고사는 체육학과에서 진행되므로 해당 학과에 지원하는 경우 이 정보를 참고하시면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.02005821149036779</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년의 경우, 수시 충원 합격자 발표 후에는 개별 전화 통보 방식으로 안내를 진행하지 않는 것으로 보입니다. 대신 합격자 발표 및 등록금 납부 일정을 통해 합격 사실을 알립니다.
+특히, 2024년의 경우 다음과 같은 절차가 적용될 가능성이 높습니다:
+1. **수시 충원 합격자 발표**: 2024년 2월 15일(목) 또는 이후에 발표 예정입니다.
+2. **개별 전화 통보**: 이 부분은 주어진 정보에서 확인되지 않았으며, 일반적으로 수시 충원 합격자는 홈페이지를 통해 개별적으로 알림을 받게 됩니다.
+따라서, 합격자 발표 후에는 학교 입학관리팀이나 해당 학과의 웹사이트를 통해 합격 사실을 확인하고, 등록금 납부 등의 절차에 따라 진행하시면 됩니다. 만약 합격 사실이 확인되지 않으면, 학교 입학사정관에게 문의하시는 것이 좋습니다.
+더 자세한 정보는 [입학 안내 홈페이지](http://ipsi.deu.ac.kr)를 참조하거나 학교 입학사정관실에 직접 문의하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.2003659744781327</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 관련 정보를 통해 추론할 수 있습니다.
+2024학년도 경찰행정학과의 모집 인원은 7명이며, 지원 인원이 29명으로, 경쟁률은 4.14입니다. 이는 2023학년도의 결과와 유사한 추세를 보일 것으로 예상할 수 있습니다.
+더 정확한 정보를 얻기 위해서는 공식 입학처 웹사이트인 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하거나, 대학 관계자에게 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.1627817003578683</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 입시에서는 일부 모집단위에서 수능을 응시하지 않은 학생들도 지원이 가능합니다. 예를 들어, 나군의 학생부종합(평생학습자전형), 성인학습자(정원내·외)전형, 재직자전형 등에서는 수능 점수 대신 다른 평가 요소들을 통해 지원자를 평가합니다. 
+특히 나군의 학생부종합 전형은 다음과 같은 특징을 가지고 있습니다:
+- 지원 자격: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+- 서류평가 영역: 공동체역량, 학업역량, 전공적합성
+- 평가비율: 서류 70%, 면접 30%
+따라서 수능을 응시하지 않은 학생들도 이와 같은 평가 기준에 따라 지원할 수 있습니다. 하지만 특정 모집단위에서는 여전히 수능 점수가 반영될 수 있으므로, 각 모집단위의 정확한 지원 자격과 평가 기준을 확인하는 것이 중요합니다.
+더 자세한 정보는 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 대학 입학처에 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.04277426228035271</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도에 정시모집에서 성인학습자 전형을 통해 지원할 수 있습니다. 하지만 일반적으로 정시모집의 성인학습자 전형은 고등학교 졸업 후 일정 기간(보통 3년 이상)이 경과한 재직자를 대상으로 합니다.
+특히, 제공된 정보에 따르면:
+- **학생부종합(성인학습자전형)**: 이 전형은 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다. 따라서, 고등학교 졸업 후 10년이 지났다면 해당 조건을 충족할 가능성이 있습니다.
+- **학생부종합(성인학습자(정원내)전형)**: 이 전형도 만 30세 이상인 자를 대상으로 합니다. 따라서, 10년 경과 후에도 지원이 가능합니다.
+따라서, 정시모집에서 성인학습자 전형을 통해 지원할 수 있습니다. 하지만 세부적인 지원 자격 및 제출 서류 등은 공식 입학 안내 사이트를 확인하시거나 학교 관계자에게 문의하시는 것이 좋습니다. 
+[공식 입학 안내 사이트 링크](https://ipsi.deu.ac.kr/main.do)를 참고하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.1059725285153235</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 정시 모집일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 이날 입학 안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감시간은 각각 해당 날짜의 오후 6시까지
+   - 원서 접수는 인터넷을 통해 진행되며, 주요 사이트로는 http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com 입니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감시간은 각각 해당 날짜의 오후 5시까지 도착
+   - 서류 제출 대상자는 입학 안내 홈페이지에서 확인 가능하며, 제출 방법은 접수 사이트에서 우편 발송용 표지를 출력하여 부착한 후 제출하거나 우편으로 보내는 방식입니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 오후 2시 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 오후 2시 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 오후 2시
+     - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2월 13일 (화), 은행 마감 시간 내
+     - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 발표 및 등록: 2차 (인터넷) 발표와 등록은 각각 2024년 2월 14일 (수) 오전 9시, 오후 4시까지
+     - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 발표 및 등록: 3차 이후 (개별 전화 통보) 발표와 등록은 각각 2024년 2월 15일 (목) 오후 7시부터 2024년 2월 20일 (화) 오후 6시까지
+     - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며 등록장소는 학교 지정은행입니다.
+이 일정들은 동의대학교의 정시 모집 과정을 안내하는 것입니다. 자세한 내용은 입학 안내 홈페이지를 참조하시거나 문의하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.5252231644624383</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집 일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감시간은 각 전형별로 다릅니다.
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감시간은 각 전형별로 다릅니다.
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 확인 가능
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 확인 가능
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내
+     - 비고: 동일한 내용
+   - 충원 합격자 발표 및 등록:
+     - 1차 (인터넷): 2024년 2월 14일 (수) 09:00, 16:00까지
+     - 2차 (인터넷): 2024년 2월 15일 (목) 09:00, 16:00까지
+     - 3차 이후 (개별 전화 통보): 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - 비고: 동일한 내용
+이 일정은 일반적인 정시모집 일정을 포함하며, 각 전형별로 세부 사항이나 변경사항이 있을 수 있으므로 공식 입학안내 홈페이지를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.6037306914326199</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)** - 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로 구성되어 있으며, 수능 미응시자를 포함합니다.
+2. **학생부종합(성인학습자(정원내)전형)** - 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 하며, 수능 미응시자를 포함합니다.
+이러한 전형들은 주로 학생부와 면접 등을 중점적으로 평가하며, 수능 점수에 대한 요구사항이 없습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.1141104294478528</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2023년도에 전자공학과의 충원 합격은 2차까지 이루어졌습니다. 
+이 정보는 다음과 같은 문단에서 얻을 수 있습니다:
+"2024학년도 주요 변경사항에서 구분은 정시모집군 변경이며, 2023학년도은 전자공학과 (나)이며, 2024학년도은 전자공학과 (가)이다."
+그리고:
+"전형일정에서 내용은 합격자 발표 및 등록금 납부 충원 합격자 1차 (인터넷) 발표이며, 일정은 2024. 02. 14.(수) 09:00이며, 비고은 * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)이다.
+전형일정에서 내용은 합격자 발표 및 등록금 납부 충원 합격자 1차 (인터넷) 등록이며, 일정은 2024. 02. 14.(수) 09:00~16:00이며, 비고은 * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)이다.
+전형일정에서 내용은 합격자 발표 및 등록금 납부 충원 합격자 2차 (인터넷) 발표이며, 일정은 2024. 02. 15.(목) 09:00이며, 비고은 * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)이다.
+전형일정에서 내용은 합격자 발표 및 등록금 납부 충원 합격자 2차 (인터넷) 등록이며, 일정은 2024. 02. 15.(목) 09:00~16:00이며, 비고은 * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)이다."
+따라서 2023년도에는 전자공학과의 충원 합격이 1차와 2차까지 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.05728662715691017</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。建议您访问东义大学的官方网站（https://ipsi.deu.ac.kr/main.do）以获取最新的联系方式，包括入学处的联系电话等信息。如果网站上仍然没有相关信息，您可以尝试通过电子邮件或其他在线表单进行咨询。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원 합격자 발표 및 등록일정에서 개별 전화 통보 방식으로 합격자를 발표하였으나, 전화 통화가 되지 않는 경우는 다음과 같이 처리됩니다:
+- **발표 방법**: 홈페이지에서 개별 조회 가능합니다.
+- **고지서 교부 방법**: 홈페이지에서 출력하거나 입학관리팀에서 수령이 가능합니다.
+- **등록장소**: 학교 지정은행으로 등록금을 납부해야 합니다. 등록금 고지서에 기재된 정보를 참고하여 진행해야 합니다.
+따라서 전화 통화가 되지 않더라도, 합격자 발표 및 등록 절차는 홈페이지를 통해 이루어집니다. 합격자는 홈페이지에서 자신의 상태를 확인하고, 필요하다면 입학관리팀으로부터 고지서를 받아 등록금을 납부해야 합니다.
+더 궁금하신 사항이 있으시다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.1512939172705149</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시, 유형에 따라 다음과 같은 서류가 필요합니다:
+### 유형별 제출서류
+#### 6년 과정 (유형)
+- **지원자 본인의 가족관계증명서** 1부
+- **지원자 본인, 부, 모의 주민등록초본 각 1부** (총 3부)
+- **중학교 학교생활기록부** 1부
+- **고등학교 학교생활기록부** 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+- **사망한 부 또는 모의 기본증명서 1부** (사망한 부모가 있는 경우, 사망이 명시되지 않은 경우 제적등본 1부를 추가로 제출)
+- **친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부**, **본인의 기본증명서(상세) 1부** (부모가 이혼한 경우)
+#### 12년 과정 (유형)
+- **지원자 본인의 주민등록초본** 1부
+- **초등학교 학교생활기록부** 1부
+- **중학교 학교생활기록부** 1부
+- **고등학교 학교생활기록부** 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+### 최종 등록자 추가 제출서류
+#### 6년 과정
+- **고교 졸업증명서**
+- **지원자 본인, 부, 모 초본 각 1부** (총 3부)
+#### 12년 과정
+- **고교 졸업증명서**
+- **지원자 본인 초본 1부**
+이러한 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.5104675176124064</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 제출해야 하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+5. 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출
+6. 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+이러한 서류들은 지원자의 학력과 거주지역에 대한 증빙 자료로 사용됩니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.4284907980248545</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到低收入机会均等的特殊招生计划。根据现有内容，没有明确说明是否设有针对低收入家庭学生的特别招生计划以及具体的选拔方式和条件。
+如果您想了解有关低收入机会均等的特殊招生计划的信息，建议您访问以下网站获取更详细的内容：
+https://ipsi.deu.ac.kr/main.do
+或者直接联系学校招生办公室以获得最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 절사되어 3등급으로 처리됩니다.
+대부분의 대학에서 수능 영역별 등급을 평균산출할 때, 소수점이 있는 등급은 올림 또는 절사 방식에 따라 반올림되거나 절사됩니다. 일반적으로는 소수점 이하를 무시하고 올림하는 경우가 많지만, 일부 대학에서는 소수점 이하를 절사하여 정수로 처리합니다.
+따라서 2.5등급은 대부분의 대학에서 3등급으로 반올림되거나 절사되어 처리됩니다. 하지만 특정 대학이나 학과에서 다른 방식을 사용할 수 있으므로, 해당 대학의 공지사항이나 입학처 웹사이트를 확인하는 것이 가장 정확한 방법입니다.
+만약 불확실성이 있다면, 해당 대학의 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.101536324868758</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표**: 2024년 2월 14일 (수) 09:00
+2. **2차 충원 합격자 발표**: 2024년 2월 15일 (목) 09:00
+3. **3차 이후 충원 합격자 발표**: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+각 차례별로 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행으로, 등록금 고지서에 기재된 정보를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.2928679119976023</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집 정보를 바탕으로 분석해보겠습니다.
+1. **모집단위 및 모집인원**: e비즈니스학과는 모집인원이 10명입니다.
+2. **지원 인원 및 경쟁률**:
+   - 지원 인원: 89명
+   - 경쟁률: 8.90
+3. **성적 분석**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 308.58입니다.
+   - 이 값보다 높거나 비슷한 성적이 더 많은 지원자에게 경쟁해야 합니다.
+4. **성적 위치**:
+   - 주어진 성적(4.6)은 수능 4개 영역 등급의 평균 점수인 4.53보다 약간 높습니다.
+   - 그러나, 이는 단순히 평균을 넘어서는 것이 아니라, 실제 경쟁률과 지원 인원을 고려해야 합니다.
+5. **추가 합격 가능성**:
+   - e비즈니스학과의 경우, 89명 중 31명이 충원되었습니다.
+   - 이는 이미 많은 수의 학생들이 합격했음을 의미합니다.
+   - 따라서, 주어진 성적(4.6)으로 추가로 합격하기 위해서는 상당히 높은 경쟁력을 갖춰야 합니다.
+**결론**: 주어진 성적(4.6 등급)만으로는 e비즈니스학과에 정시 전형으로 추가 합격하기가 어렵다고 볼 수 있습니다. 그러나, 다른 강점이나 특기사항을 잘 활용한다면 가능성을 높일 수 있을 것입니다.
+추가적으로, 지원자의 개인적인 경쟁력을 분석하거나, 해당 대학의 최종 등록자 정보를 더 자세히 살펴보는 것이 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.2350429851061323</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능(일반학생전형) 최초합격자들의 성적 분포를 보면, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.20이며, 표준 편차는 7.56입니다.
+등급 5.3에 해당하는 표준 변환 점수를 계산해보겠습니다:
+- 수능 등급과 표준 변환 점수 간의 대략적인 관계는 다음과 같습니다:
+  - 등급 1: 약 200점대
+  - 등급 2: 약 250점대
+  - 등급 3: 약 300점대
+  - 등급 4: 약 350점대
+  - 등급 5: 약 400점대
+  - 등급 6: 약 450점대
+등급 5.3을 계산하면, 대략 415점 정도가 됩니다.
+이 점수는 평균보다 약간 높은 수준이며, 표준 편차를 고려할 때 상위권에 해당합니다. 따라서 등급 5.3의 학생이 e비즈니스학과에 최초합격 가능성은 있습니다만, 경쟁률과 지원 인원을 고려하면 확실한 것은 아닙니다.
+- 모집인원: 10명
+- 지원인원: 89명
+- 경쟁률: 약 8.90
+등급 5.3의 학생이 최초합격 가능성은 있으나, 상위권에서 경쟁해야 합니다. 따라서 최고 점수를 받는 학생들 사이에서는 경쟁력이 있을 수 있습니다.
+결론적으로, 등급 5.3의 학생이 e비즈니스학과에 최초합격 가능성이 있지만, 확실한 것은 아니며, 상위권에서 경쟁해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.1375150971460084</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2024학년도 입시에서는 정확한 합격 가능성 평가를 위해서는 여러 요소들을 고려해야 합니다. 주요 요인으로는 수능 성적, 서류평가 점수, 면접 성적 등이 있습니다. 아래에 각 전형의 특징을 간단히 설명드리겠습니다:
+1. **수능 성적**:
+   - 다군 수능(일반학생전형): 수능 반영 비율이 100%로, 이는 학생들의 수능 점수가 가장 중요한 평가 기준입니다.
+   - 나군 학생부종합(조기취업형계약학과전형): 서류와 면접의 비중이 각각 60%와 40%로, 이 중에서도 수능 성적이 중요합니다.
+2. **서류평가**:
+   - 나군 학생부종합: 공동체역량, 학업역량, 전공적합성 등 다양한 영역에서 평가됩니다.
+   - 다군 수능(일반학생전형): 서류 제출이 필요하지 않으나, 학생부 온라인 제공 동의는 가능합니다.
+3. **면접평가**:
+   - 나군 학생부종합: 면접 성적이 40%의 비중을 차지하므로 중요합니다.
+   - 다군 수능(일반학생전형): 면접은 실기/실적 전형에서는 실기 성적이 주요 평가 기준이지만, 일반학생전형에서는 서류와 동점자 처리에서 중요한 역할을 합니다.
+**예비합격 가능성 평가**:
+- **수능 성적**: 38번 학생의 수능 점수가 중요합니다. e비즈니스학 전공에 대한 수능 반영 영역은 국어, 수학, 영어 등이 포함되므로, 이들 과목에서 좋은 성적이 필요합니다.
+- **서류평가**: 학생부 내용과 활동 기록이 중요합니다. 지원 동기와 학업 계획, 전공적합성 등을 잘 보여줄 수 있어야 합니다.
+- **면접평가**: 면접에서는 지원자의 의사소통 능력, 전공에 대한 이해도, 미래 계획 등이 평가됩니다.
+**추천 사항**:
+1. **수능 성적 확인**: 수능 점수가 높은 학생일 경우, 합격 가능성은 높아집니다.
+2. **서류 준비**: 지원 동기와 학업 계획을 명확하게 서술하고, 전공적합성과 관련된 활동 기록을 체계적으로 작성해야 합니다.
+3. **면접 준비**: 면접 질문에 대한 답변을 미리 준비하고, 자신감 있게 대답할 수 있도록 연습해보세요.
+이러한 요소들을 종합적으로 고려하여 38번 학생의 예비합격 가능성은 어느 정도일지 판단할 수 있습니다. 자세한 정보는 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.05268836946543324</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 모집인원과 지원자 수를 살펴보면, 간호학과는 정원 내 모집 인원이 110명이며, 나군 일반 학생 모집 인원은 22명입니다. 
+수능(일반학생전형) 최종등록자의 성적 분석을 보면:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 353.48
+- 영어 등급의 평균: 2.34
+이러한 데이터를 바탕으로, 지원자의 성적이 3.44라는 점을 고려하면, 동의대학교 간호학과에 합격 가능성은 낮다고 볼 수 있습니다. 하지만, 최종 합격 여부는 여러 요인에 따라 달라질 수 있으므로, 정확한 판단을 위해서는 추가 정보와 지원자의 전반적인 경쟁력을 고려해야 합니다.
+추가적으로, 간호학과의 입시 경쟁률이 높아서 지원하기 어렵다면, 다른 학과나 전형을 고려해보는 것도 좋은 방법일 수 있습니다. 또한, 동의대학교 웹사이트(https://ipsi.deu.ac.kr/main.do)를 통해 최신 정보와 추가적인 지원 가이드라인을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.1380230792998293</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 동의대학교 간호학과의 수능 최종등록자들의 평균 영어 등급(4.18)에 비해 약간 낮습니다. 그러나 간호학과의 경쟁률이 6.59이며, 지원 인원이 많아서 점수만으로는 결정되지 않을 수 있습니다.
+다음은 고려해야 할 몇 가지 요소입니다:
+1. **전반적인 성적 평균**: 
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48입니다.
+   - 이 점수가 2.52보다 높으므로, 수능 점수만으로는 충분히 경쟁력을 갖추고 있을 수 있습니다.
+2. **영어 등급**:
+   - 평균 영어 등급은 2.34로, 2.52는 약간 더 좋습니다.
+   - 그러나 동의대학교 간호학과에서는 영어 등급이 중요한 요소가 아니므로, 이 점수만으로는 큰 차이는 없을 것입니다.
+3. **학생부 및 서류 평가**:
+   - 학생부와 서류평가에서 좋은 성적을 받으면 도움이 될 수 있습니다.
+   - 특히 실기/실적(경기실적우수자전형)이나 학생부종합 등 다른 평가 항목에서 높은 점수를 받는다면, 전체적으로 더 유리해질 것입니다.
+4. **면접 성적**:
+   - 면접에서도 좋은 성적을 받으면 도움이 될 수 있습니다.
+   - 동의대학교에서는 면접평가에서 학업역량과 전공적합성을 중점적으로 평가하므로, 이 부분에서 높은 점수를 받는다면 유리할 것입니다.
+결론적으로, 2.52라는 영어 등급만으로는 최종 합격을 보장하지는 못합니다. 그러나 수능 점수가 상대적으로 높고, 다른 평가 항목에서 좋은 성적을 받으면 가능성이 있습니다. 
+추천 사항:
+- **학생부 및 서류 준비**: 철저하게 준비하여 학생부와 서류평가에서 높은 점수를 받도록 노력하세요.
+- **면접 준비**: 면접에서도 잘 준비하고, 학업역량과 전공적합성을 잘 보여주세요.
+이런 준비를 하면서 최선을 다하면 가능성이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.08385967932917693</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수지만, 간호학과에 지원하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **수능 성적**: 간호학과는 일반적으로 높은 수능 영어 등급을 요구합니다. 평균적으로 4등급 이상이 필요하며, 일부 학교에서는 3등급 이상도 요구할 수 있습니다. 따라서 수능 영어 등급이 중요합니다.
+2. **학생부 성적**: 간호학과는 종합적인 학생부를 고려하므로, 국어, 수학, 사회 등의 과목에서 좋은 성적이 필요합니다. 특히 한국사와 사회(역사/도덕 포함)의 성적이 중요할 수 있습니다.
+3. **추천서 및 자기소개서**: 일부 대학에서는 추천서나 자기소개서를 요구하며, 이는 학생의 역량과 적합성을 평가하는 중요한 요소입니다.
+4. **면접**: 간호학과는 종종 면접을 실시하여 지원자의 인성과 의사소통 능력을 평가합니다.
+5. **추천사**: 일부 대학에서는 추천사를 요구하며, 이는 학교 관계자나 직장에서의 경력이 있는 사람으로부터 받는 것이 일반적입니다.
+6. **경쟁률 및 입학 기준**: 간호학과의 경쟁률은 매우 높습니다. 따라서 평균적인 성적이 좋은 지원자가 많을 수 있습니다. 이 점을 고려하면 3.7의 GPA만으로 합격하기는 어렵지만, 다른 요소들을 잘 준비한다면 가능성이 있을 수 있습니다.
+따라서, 다음과 같은 조치를 취해보세요:
+- **수능 영어 등급**: 최대한 높은 등급을 목표로 하세요.
+- **학생부 성적**: 국어, 수학, 사회 등의 과목에서 좋은 성적이 나와야 합니다. 특히 한국사와 사회의 성적이 중요합니다.
+- **추천서 및 자기소개서**: 잘 준비하여 지원자의 역량과 적합성을 강조하세요.
+- **면접 준비**: 면접을 위한 충분한 준비를 하세요.
+이러한 조치들을 취하면 합격 가능성은 높아질 것입니다. 그러나 여전히 경쟁률이 매우 높기 때문에, 최선의 결과를 얻으려면 모든 요소를 잘 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.06500747772937121</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집인원과 지원자 수를 살펴보면 다음과 같습니다:
+- **정원 내 모집 인원**: 110명
+- **지원 인원**: 145명
+- **경쟁률**: 6.59
+2023년도와 비교해볼 때, 간호학과의 경쟁률은 상대적으로 높습니다 (2023년도는 약 7:1 정도였던 것으로 추정). 
+**성적 평균 및 분포**: 
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 353.48
+- **영어 등급의 평균**: 2.34
+성적이 2.58이라면, 이는 평균보다 약간 낮은 수준입니다. 그러나 간호학과의 경우, 정시 모집인원이 많고 경쟁률이 높기 때문에 성적만으로 합격을 보장할 수는 없습니다.
+**합격 가능성**: 
+- **성적이 중요한 요소**: 성적이 낮은 상태에서 합격하기 위해서는 다른 평가 항목 (면접, 추천서 등)에서 우수한 점수를 받거나 특별한 경험이나 능력을 보여줘야 합니다.
+- **전형 요소의 균형**: 서류평가와 면접 등의 비중이 높기 때문에, 이 부분에서도 좋은 평가를 받아야 합니다.
+**결론**: 성적이 2.58이라면 합격 가능성은 낮지만, 다른 평가 항목에서 우수한 점수를 받는다면 합격 가능성이 있습니다. 그러나 확실한 합격을 보장하기 위해서는 전반적인 경쟁력을 고려해야 합니다.
+추천되는 조치:
+1. **면접 준비**: 면접에서는 자신의 강점과 간호사로서의 열정을 잘 표현할 수 있도록 준비하세요.
+2. **추천서 작성**: 추천서에서 선생님이나 직장 동료로부터 긍정적인 평가를 받도록 노력하세요.
+3. **자기소개서 작성**: 자기소개서에서는 간호사로서의 꿈과 열정을 잘 표현할 수 있도록 하세요.
+더 자세한 정보나 도움이 필요하시면, 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.07634286262662739</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要了解一些额外的信息。您是通过哪种入学考试申请的？例如，是“나군 수능(일반학생전형)”、“나군 학생부종합(조기취업형계약학과전형)”等吗？此外，请提供该专业的招生人数和您的成绩排名等相关信息。
+不过，根据您提供的信息，我可以给出一些一般性的建议：
+1. **了解录取标准**：查看该专业的具体录取标准。通常会考虑综合成绩（包括考试成绩、面试成绩和其他评价），以及是否达到特定的分数线或排名要求。
+2. **成绩和排名**：提供您的成绩和在同专业申请者的排名情况，这有助于判断您是否有竞争力。
+3. **招生人数**：了解该专业的招生名额。如果竞争非常激烈，即使您的综合成绩很高，也可能因为名额有限而未能录取。
+如果您能提供更多具体信息，我可以给出更准确的建议或指导您如何准备和应对。同时，您可以访问学校官网（如 https://ipsi.deu.ac.kr/main.do）查看最新的招生信息和要求。</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.068762278978389</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 성적이 4.16 정도라면 다음과 같은 정보를 참고할 수 있습니다:
+- 모집 인원: 3명
+- 지원 인원: 16명
+- 경쟁률: 약 5.33대 1
+이러한 데이터를 바탕으로, 수능 성적이 4.16 정도라면 대략적인 위치는 다음과 같습니다:
+1. 평균 수능 점수: 4.78 (가산점 포함)
+2. 표준 편차: 0.20
+이 점수대에서는 경쟁률이 약 5.33대 1로 상당히 높습니다. 그러나 정확한 합격 확률을 예측하기 위해서는 추가적인 정보가 필요합니다:
+- 지원자의 수능 성적 분포
+- 입학사정관 평가 및 면접 결과
+일반적으로, 수능 점수가 평균보다 약간 낮더라도 입학사정관 평가와 면접에서 우수한 성과를 보인다면 합격 가능성은 높아질 수 있습니다. 그러나 이 경우에도 경쟁률이 매우 높기 때문에, 3등위 안에 들어가는 것은 어렵다고 볼 수 있습니다.
+따라서, 정확한 추가 합격 가능 횟수는 예측하기 어려우나, 대략적으로 1~2명 정도를 받을 가능성은 있다고 추정할 수 있습니다. 최종 결정은 입학사정관 평가와 면접 결과에 크게 의존하므로, 지원자는 이러한 요소들을 최대한 준비하는 것이 중요합니다.
+추가로, 동의대학교의 정시모집 전형에서 학생부 종합 평가와 면접이 중요한 역할을 하는 만큼, 이 부분에서도 우수한 성과를 보여주면 더 좋은 결과를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.09720657850172101</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 동일 모집단위의 전형요소 반영비율을 확인해보겠습니다.
+- **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**: 
+  - 서류 평가 : 70%
+  - 면접 평가 : 30%
+- **나군 학생부종합(조기취업형계약학과전형)**:
+  - 서류 평가 : 60%
+  - 면접 평가 : 40%
+이 중 경영정보학과에 대한 전형요소 반영비율을 확인해보겠습니다. 
+- **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+  - 학업역량 : 280점 (70%)
+  - 전공적합성 : 280점 (70%)
+- **나군 학생부종합(조기취업형계약학과전형)**:
+  - 학업역량 : 240점 (60%)
+  - 전공적합성 : 240점 (60%)
+**3.75 GPA의 경우:**
+- **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+  - 학업역량 : 280점 (70%)
+    - 3.75 GPA는 대체로 좋은 성적입니다.
+  - 전공적합성 : 280점 (70%)
+- **나군 학생부종합(조기취업형계약학과전형)**:
+  - 학업역량 : 240점 (60%)
+    - 3.75 GPA는 좋은 성적입니다.
+  - 전공적합성 : 240점 (60%)
+**결론:**
+- **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**: 
+  - 3.75 GPA는 학업역량에서 좋은 점수를 받을 수 있으므로 가능합니다.
+- **나군 학생부종합(조기취업형계약학과전형)**:
+  - 3.75 GPA는 학업역량에서 좋은 점수를 받을 수 있으므로 가능합니다.
+따라서, 경영정보학과에 지원하려면 해당 전형의 서류평가와 면접평가를 잘 준비해야 합니다. 특히, 학업역량과 전공적합성 부분에서 3.75 GPA를 최대한 활용하여 좋은 평가를 받을 수 있도록 노력해보세요.
+추가로, 지원서 작성 시 학교생활기록부와 면접 준비에 대한 자세한 내용은 입학처 홈페이지나 전형 안내문을 확인하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.02517985611510791</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시모집군 변경사항을 살펴보면, 경영정보학과는 정시모집군이 변경되지 않았습니다. 따라서 경영정보학과의 경우, 성적이 4.2라면 최초 등록자로 가능할 가능성은 있습니다.
+하지만 확실한 답변을 위해서는 다음과 같은 점들을 확인해야 합니다:
+1. **성적 기준**: 각 모집단위별로 정확한 성적 기준이 있는지 확인해야 합니다.
+2. **모집인원 및 지원인원**: 해당 학과의 모집인원과 지원인원을 파악하여 경쟁률을 판단합니다.
+3. **전형방법**: 서류평가, 면접 등 다양한 평가 요소와 그 비율을 확인해야 합니다.
+추가적으로, 2024학년도 입시 정보는 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 통해 확인하는 것이 가장 정확합니다. 해당 사이트에서 최신의 입시 안내 및 성적 기준 등을 확인할 수 있습니다.
+따라서, 경영정보학과에 지원하려면 공식 홈페이지를 참조하여 최종적인 가능성을 판단해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.09507646211210863</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 수능 성적 평균은 4.69로 보입니다 (수능 4개 영역 등급의 평균). 지원 인원이 7명이고 모집인원이 7명으로 정원 만족률이 높지 않은 것으로 보아 경쟁률이 낮을 가능성이 있습니다.
+당신의 수능 성적(5.33)은 이전 합격자들의 평균보다 약간 높습니다. 그러나 최종 합격 여부는 단순히 수능 점수만으로 결정되는 것이 아니라, 전형 방식과 기타 요인들 (예: 교과 성적, 면접 등)도 고려됩니다.
+따라서 다음과 같은 점들을 확인해 보시기 바랍니다:
+1. **전형방법**: 동의대학교 경영정보학과는 일반학생전형으로 수능 성적이 주요 평가 요인입니다.
+2. **수능 성적**: 당신의 수능 4개 영역 등급이 5.33이라면, 이는 전반적으로 좋은 성적입니다.
+3. **교과 성적**: 교과 성적도 중요한 요소로 고려되므로, 해당 부분에서도 우수한 성적이 나와야 합니다.
+4. **면접 및 기타 평가**: 면접 등 추가 평가에서 좋은 점수를 받는 것이 중요합니다.
+전반적으로 당신의 수능 성적이 꽤 높으므로 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 전형 방식과 전체 지원자의 성적 분포를 고려하여 최종 결정을 내리시길 바랍니다.
+추가 정보나 자세한 조언이 필요하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.09066784966062053</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 대한 정보를 바탕으로 답변 드리겠습니다.
+1. **모집단위 및 지원 인원**: 
+   - 모집 단위: 의생명공학과, 바이오의약공학과, 식품공학과
+   - 모집 인원: 99명 (총)
+   - 지원 인원: 238명
+2. **경쟁률**:
+   - 경쟁률은 2.40입니다.
+3. **성적 평균 및 분산**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 311.13
+   - 표준 편차: 15.22
+4. **성적 범위**:
+   - 평균이 311.13이고 표준 편차가 15.22이므로, 대략적인 성적 분포는 다음과 같습니다.
+     - 약 68%의 학생은 300점대에서 327점대 사이에 있습니다 (평균 ± 1 표준 편차).
+     - 약 95%의 학생은 285.91점에서 336.35점 사이에 있습니다 (평균 ± 2 표준 편차).
+5. **성적 평가**:
+   - 성적이 3.33이라면, 이는 대략 300점대 중반에서 310점대 초반의 점수를 의미합니다.
+   - 이 수치는 평균보다 약간 낮지만, 표준 편차를 고려하면 여전히 경쟁률이 높은 모집단위에 지원하기에는 가능할 수 있습니다.
+6. **결론**:
+   - 성적이 3.33이라면, 바이오응용공학부 최초등록자로 지원하는 것은 가능하지만, 경쟁률이 높아서 충원 합격을 확신하기는 어렵습니다.
+   - 이 경우, 다른 전형이나 대안적인 대학/전공을 고려해보는 것이 좋을 수 있습니다.
+추가적으로, 동의대학교에서는 다양한 전형이 있으므로, 학생부종합(조기취업형계약학과전형) 등 다른 전형도 고려해 보시는 것을 추천드립니다. 또한, 입학사정관 제출서류와 면접 준비를 철저히 하여 최선을 다하는 것이 중요합니다.
+더 궁금하신 점이 있으시면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.08358444282217226</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도의 변경사항을 고려하여 답변 드리겠습니다.
+방사선학과는 주로 공과대학에 속해 있으며, 일반학생전형에서는 다음과 같은 요소들이 중요하게 작용합니다:
+1. **수능 성적**: 방사선학과는 수능 점수가 중요한 역할을 합니다. 4등급은 상대적으로 낮은 등급이므로, 다른 학생들과 경쟁 시 약간의 불리함이 있을 수 있습니다.
+2. **학생부 종합 평가**: 학생부에서 보여주는 성적 외에도 공동체역량, 학업역량, 전공적합성 등 다양한 요소들이 고려됩니다. 따라서 좋은 학생부를 유지하고 활동을 적극적으로 참여하는 것이 중요합니다.
+3. **면접**: 일부 모집단위에서는 면접 점수가 포함되므로, 준비가 필요합니다.
+4. **추천서 및 기타 서류**: 특정 모집단위에서는 추천서나 추가 서류가 요구될 수 있으니 참고하세요.
+**추천사항:**
+- **학생부 관리**: 학교생활기록부를 잘 관리하고 활동을 적극적으로 참여하여 좋은 평가를 받도록 하세요.
+- **면접 준비**: 면접 시 방사선학과에 대한 이해도와 자신의 적합성을 잘 표현할 수 있도록 준비하세요.
+- **추천서 및 서류**: 필요하다면 추천서나 추가 서류를 준비하고 제출하십시오.
+수능 4등급은 약간 낮지만, 학생부와 면접 등 다른 요소들을 잘 활용한다면 방사선학과에 지원하는 것은 가능합니다. 자세한 정보는 해당 대학의 입시 홈페이지나 입학처로 문의하시는 것이 좋습니다.
+더 궁금하신 점이 있으시면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.04446816079686943</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률이 7.20으로 높고, 모집인원은 5명이며 지원인원은 36명입니다. 이에 따라 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 338.76이고, 표준 편차는 5.40입니다.
+당신의 점수가 2.66이라는 것은 표준변환점수로 계산하면 대략 260-270 정도의 점수를 의미합니다. 이 점수는 평균보다 약간 낮은 수치이며, 경쟁률이 높고 모집인원이 적기 때문에 위험할 수 있습니다.
+하지만, 면접과 서류평가에서 좋은 성적을 받거나 지원동기가 강력하다면 합격 가능성은 여전히 존재합니다. 특히 면접에서는 자신의 열정과 전공적합성을 잘 표현하는 것이 중요합니다.
+결론적으로, 점수 자체는 위험할 수 있지만, 총체적인 평가를 고려하면 아직 희망이 있습니다. 추가 지원 자료와 면접 준비에 집중하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.1320407950303152</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공 농어촌 전형에 지원하셨다면, 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 정시 성적이 3.66이라면, 대체로 중간 이상의 등급 점수를 받으신 것으로 보입니다.
+경찰행정학전공 농어촌 전형의 경우, 수능과 학생부가 각각 반영되므로 다음과 같은 요소들을 고려해야 합니다:
+1. **수능 성적**: 수능 성적이 중요합니다. 경찰행정학과와 관련된 교과 영역(사회/국어/영어 등)에서 좋은 점수를 받으셨다면 이점이 유리할 것입니다.
+2. **학생부 성적**: 학생부의 평균 성적이 3.66이라면, 대체로 중간 이상의 수준을 유지하고 있으므로 이 부분도 괜찮습니다.
+3. **추천서 및 자기소개서 등 추가 서류**: 농어촌 전형에서는 지역적 배려와 농어촌 경험 등을 고려하기 때문에 추천서나 자기소개서에서 이러한 요소를 잘 강조하신다면 유리할 수 있습니다.
+4. **동점자 처리 기준**: 동점자 처리 시 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균을 기준으로 합니다. 따라서 이 부분에서도 좋은 성적을 받으셨다면 유리할 것입니다.
+5. **추천 및 특별 지원**: 만약 지역 내에서 농어촌 경험이 풍부하거나, 농업 관련 활동을 많이 해온 경우 추천서나 자기소개서에서 이를 잘 강조하면 도움이 될 수 있습니다.
+결론적으로, 3.66의 성적은 중간 이상으로 평균 이상의 점수를 받으신 것으로 보이며, 농어촌 전형에서는 지역적 배려와 경험도 중요한 요소입니다. 따라서 합격 가능성은 있으나, 경쟁률과 지원자의 다양성에 따라 결과는 불확실합니다.
+추가적으로, 동일한 모집단위의 다른 전형(예: 일반전형)에서도 지원해보시는 것이 좋을 수 있습니다. 이를 통해 더 확실한 합격 가능성과 다양한 선택지를 가지실 수 있을 것입니다.
+더 궁금하신 점이 있으시면 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하거나, 대학 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.13224705727201</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 위치입니다. 하지만 수능 최저 기준과 모집인원, 그리고 다른 지원자의 성적 등 다양한 요소가 고려되기 때문에, 아직 모든 것이 결정되지 않았습니다.
+현재 상황에서 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **수능 성적**: 25번의 순위를 얻기 위해서는 매우 높은 수능 점수가 필요합니다. 특히 국어, 수학, 영어 등 주요 과목의 성적이 중요할 것입니다.
+2. **모집인원**: 모집인원이 많지 않다면, 25번 순위를 유지하는 것이 가능성이 있습니다. 하지만 모집인원이 많다면, 다른 지원자들의 점수가 높아져서 순위가 변동될 수 있습니다.
+3. **다른 지원자의 성적**: 현재까지의 지원자들 중에서 가장 높은 점수를 가진 지원자가 25번을 차지하고 있다면, 이는 매우 강력한 경쟁력을 보여줍니다. 하지만 아직 모든 지원자가 공개되지 않았기 때문에, 다른 지원자의 성적이 나올 경우 순위가 변동될 수 있습니다.
+4. **전형 요소**: 전형요소 반영비율을 보면 수능이 100%로 가장 큰 비중을 차지하고 있으므로, 수능 점수가 높은 지원자가 유리합니다.
+5. **동점자 처리 기준**: 동점자 처리 기준에 따라 순위가 결정될 수 있습니다. 예를 들어, 수능 국어, 수학, 영어 등 특정 영역의 성적이 중요하게 평가될 수 있습니다.
+결론적으로, 25번을 유지하는 것은 매우 어렵지만 아직 모든 지원자가 공개되지 않았기 때문에, 가능성은 여전히 존재합니다. 최선을 다해 준비하고, 가능한 한 높은 수능 점수를 얻는 것이 중요할 것입니다. 또한, 입학사정관의 평가와 면접 성적 등 다른 요소들도 고려되어야 합니다.
+추가 정보나 자세한 질문이 있다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.07612843779420307</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학과의 모집 정보를 바탕으로 추론해보겠습니다.
+- **모집 인원**: 7명 (가군 일반학생, 나군 일반학생, 나군 경기실적우수자)
+- **지원 인원**: 10명
+- **경쟁률**: 약 1.43:1
+이렇게 적은 모집인원과 지원 인원으로 보아, 안정적인 합격을 위해서는 상대적으로 낮은 경쟁률을 유지할 수 있어야 합니다.
+**성적 평균 및 분석**:
+- **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균**: 315.78
+- **영어 등급 평균**: 3.11
+이러한 데이터를 바탕으로 추정해보면, 다음과 같은 성적을 받는다면 안정적인 합격 가능성이 높아 보입니다:
+- **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합**: 310~315 사이
+- **영어 등급**: 3.0 이상
+이 정도의 성적을 받으면, 경쟁률이 낮아지고 안정적인 합격 가능성이 높아질 것으로 예상됩니다.
+**문 닫고 들어갈 수 있는 기준**:
+- **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합**: 320 이상
+- **영어 등급**: 3.5 이상
+이 정도의 성적을 받으면, 경쟁률이 매우 낮아지고 문 닫고 들어갈 수 있는 기회가 높아질 것입니다.
+결론적으로, 법경찰행정학과에 정시로 안정적인 합격을 위해서는 **310~315**의 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합과 **영어 등급 3.0 이상**이 필요하며, 문 닫고 들어갈 수 있는 기준은 **320 이상**의 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합과 **영어 등급 3.5 이상**입니다.
+추가적으로, 개인별 성적 편차와 입시 전략 등을 고려하여 최종 결정하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.3426274103385465</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 입학 경쟁률과 성적 분포를 고려해보겠습니다.
+1. **성적 평균 및 표준 편차**: 보육가정상담학과는 상경대학에 속하며, 해당 단과대학의 최종 등록자들의 성적 평균을 살펴볼 수 있습니다.
+   - 예를 들어, 경영학과의 경우:
+     - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 300.68
+     - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 416.53
+2. **성적 등급**: 성적 등급이 5.33인 경우, 이는 대략 80-90% 범위에 해당합니다 (등급별 점수 참고: 75-100점대).
+3. **경쟁률 및 지원자 수**:
+   - 예를 들어, 경영학과의 경우:
+     - 모집 인원은 15명
+     - 지원 인원은 65명
+     - 경쟁률은 4.33
+4. **성적 평균 비교**: 
+   - 5.33 등급을 가진 학생이 80-90%대 점수를 받았다면, 이는 상당히 높은 성적이므로 경쟁률이 낮은 과목이나 모집단위에서는 충분히 합격 가능성이 있습니다.
+5. **전반적인 분석**:
+   - 보육가정상담학과의 경우, 2024년도에 신설된 학과로 아직 정확한 성적 평균이 공개되지 않았을 수 있지만, 상경대학 내 다른 과목들과 비슷한 경쟁률을 가진 것으로 예상됩니다.
+   - 현재 제공된 데이터를 바탕으로 5.33 등급은 좋은 성적이므로 합격 가능성은 높습니다.
+결론적으로, 5.33 등급의 성적을 가지고 보육가정상담학과에 지원한다면 충분히 합격 가능성이 있습니다. 하지만 최종 결정은 해당 과목의 정확한 평균 점수와 경쟁률 등을 고려해야 합니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.121482056910018</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원 합격자 발표 및 등록 일정이 다음과 같습니다:
+- **충원 합격자 3차 발표**: 2024. 02. 15.(목) 09:00
+- **충원 합격자 3차 등록**: 2024. 02. 15.(목) 09:00~16:00
+당신이 예비 12번을 받았다는 점에서, 충원 합격의 가능성은 있습니다. 그러나 이는 여러 요인에 따라 달라질 수 있으며, 다음과 같은 점들을 고려해야 합니다:
+1. **경쟁률**: 각 모집단위별로 다른 경쟁률이 있을 수 있으므로, 해당 모집단위의 경쟁률을 확인해 보세요.
+2. **성적 및 평가 결과**: 서류평가와 면접 등에서 좋은 성적이 나왔다면 합격 가능성은 높아질 것입니다.
+3. **등록금 납부**: 등록금을 지정된 은행에 신속하게 납부해야 합니다.
+이러한 정보를 바탕으로, 충원 합격자 발표일인 2024년 2월 15일에 결과를 확인해 보시는 것이 좋습니다. 또한 입학관리팀이나 대학 홈페이지에서 추가적인 정보를 얻어보시기 바랍니다.
+만약 자세한 내용이 필요하다면, [입학안내 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 학교에 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.2435092629713405</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75의 등급점수를 얻으려면 수능 영어영역에서 매우 높은 점수를 받아야 합니다. 4.75는 약 120점대 중반부터 130점대 초반까지의 점수가 대응됩니다.
+유아교육학과에 지원할 때, 수능 성적 외에도 학생부 종합 평가와 면접 등 다양한 요소들이 고려되므로 단순히 수능 점수만으로 판단하기는 어렵습니다. 그러나 4.75의 등급점수를 얻기 위해서는 다음과 같은 조언이 있습니다:
+1. **영어 실력 강화**: 영어 영역에서 높은 점수를 받기 위해 집중적으로 공부해야 합니다.
+2. **학생부 작성**: 학생부에서 자신의 노력과 성취를 잘 보여주는 내용을 기재해야 합니다.
+3. **면접 준비**: 면접에서도 유아교육에 대한 열정과 적합성을 잘 표현해야 합니다.
+유아교육학과는 교육 분야의 특성상 학생들의 인성, 역량, 그리고 진심 어린 지원 동기가 중요하게 평가됩니다. 따라서 수능 점수 외에도 이러한 요소들이 충분히 반영될 수 있도록 준비하는 것이 좋습니다.
+만약 추가적인 정보나 도움이 필요하시다면, 학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1546817761443207</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집에서 보육가정상담학과의 경쟁률과 등급을 고려해보겠습니다.
+1. **모집인원 및 지원자 수**: 
+   - 보육가정상담학과는 일반학생전형으로 3명이 모집됩니다.
+   - 지원자는 20여 명 정도로 추정됩니다 (확실한 숫자는 제공되지 않았습니다).
+2. **등급 평균**:
+   - 4.16 등급은 상당히 높은 수준입니다. 2023년도에 이 학과의 최종 등록자들의 등급 평균이 4.57에서 4.89까지 다양하게 보였습니다 (예: 2023학년도 경쟁률이 높은 학과에서는 4.69, 낮은 학과에서는 4.12 등).
+3. **경쟁률**:
+   - 2023년도의 경우, 보육가정상담학과는 최대 경쟁률이 5.71:1 (법학과)였습니다.
+   - 이에 비해 2024년도의 경쟁률은 아직 공개되지 않았지만, 일반적으로 유사한 수준일 가능성이 높습니다.
+4. **합격 가능성**:
+   - 4.16 등급이 최근 몇 년간의 평균보다는 낮지만, 여전히 상당히 높은 수준입니다.
+   - 경쟁률이 예년과 비슷하다고 가정하면, 4.16 등급으로도 합격 가능성은 있습니다.
+5. **추합**:
+   - 추합 점수를 고려할 때, 4.16 등급은 상당히 유리한 위치에 있습니다.
+   - 특히, 지원자가 다른 과목에서 높은 점수를 받았다면 더 큰 이점이 될 수 있습니다.
+결론적으로, 4.16 등급으로 보육가정상담학과의 일반학생전형을 추합까지 생각한다면 합격 가능성은 충분히 있습니다. 그러나 최종 결정은 지원자의 전체 성적 및 경쟁률에 따라 달라질 수 있으므로, 정확한 정보를 확인하기 위해 공식 홈페이지나 입학처와 상담하는 것이 좋습니다.
+추가적으로, 동의대학교의 공식 웹사이트 (https://ipsi.deu.ac.kr/main.do)에서 최신 정보를 확인하시거나, 입학처에 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.09271577609810455</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려면 다음과 같은 정보가 필요합니다:
+1. **모집단위 및 모집인원**: 
+   - 단과대학: ICT공과대학
+   - 모집단위: 소프트웨어융합학과
+   - 모집 인원: 7명
+2. **경쟁률 및 합격 평균 등급**:
+   - 2024학년도 최종등록자 경쟁률은 약 63:1 (소프트웨어공학부)입니다.
+   - 지원 인원이 많아 경쟁률이 높을 것으로 예상됩니다.
+3. **성적 평균 등급**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 450.71입니다.
+   - 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다.
+4. **가산점**:
+   - 수학(미적분 또는 기하) 응시자에 대한 가산점이 있습니다 (수학 취득 표준점수의 10%).
+5. **전형요소 반영비율**:
+   - 실기/실적: 학생부교과18%+출결12%+서류(실적)70%
+6. **성적 평균 등급 예상**:
+   - 경쟁률이 높아 450점 이상의 표준 변환 점수와 영어 3.30 이상, 수능 4개 영역 등급의 평균 4.12 이상을 받는 것이 유리할 것으로 보입니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 다음과 같은 성적을 갖추어야 합니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 450점 이상
+- **영어 등급**: 3.30 이상
+- **수능 4개 영역 등급의 평균**: 4.12 이상
+이러한 성적을 기반으로 지원하면 경쟁력을 갖추게 될 것입니다. 그러나 최종 합격 가능성은 경쟁률과 함께 개인별 성적이 결정되므로, 정확한 예측은 불가능합니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.0223320747217806</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히, 서류 평가는 공동체역량, 학업역량, 전공적합성 등 다양한 영역에서 평가되며, 세특(세부 특기사항) 내용이 중요한 역할을 합니다.
+### 면접 점수와 서류 평가의 중요도
+- **면접 점수**: 1등급은 180점이며, 5등급은 126점입니다. 이는 총 점수에서 큰 비중을 차지하므로 준비를 철저히 해야 합니다.
+- **서류 평가 점수**: 공동체역량에서는 최고 등급이 120점, 학업역량에서는 최고 등급이 240점, 전공적합성에서는 최고 등급이 240점입니다. 이는 각각의 영역에서 높은 점수를 받기 위해 세특 내용을 잘 준비해야 합니다.
+### 서류 준비
+- **세특 내용**: 세특는 지원자의 경험과 능력을 구체적으로 보여주는 중요한 부분입니다. 특히, 창의적 체험활동, 동아리 활동, 진로활동 등이 중요합니다.
+  - **창의적 체험활동**: 실제 참여한 프로젝트나 활동을 자세히 기재해야 합니다.
+  - **동아리 활동**: 활동 내용과 결과를 구체적으로 기재해야 합니다.
+  - **진로활동**: 진로 탐색 과정에서의 경험과 성장과정을 상세하게 기재해야 합니다.
+### 서류 준비 시 주의사항
+- **실제 경험 기재**: 학교생활기록부에 기재된 내용 그 이상의 경험적 사실을 설명해야 합니다. 단순히 기억이 나지 않는다고 답변하는 것은 부정적인 평가를 받을 수 있습니다.
+- **과장 피하기**: 세특 내용은 과장되지 않아야 하며, 실제 활동과 일치해야 합니다.
+### 예시
+1. **창의적 체험활동**:
+   - "저는 학교에서 주최한 인공지능 프로젝트에 참여하여 AI 모델을 개발하였습니다. 이 과정에서 데이터 수집, 모델 훈련, 결과 분석 등 다양한 단계를 경험하였고, 이를 통해 AI 기술의 중요성을 깊이 이해하게 되었습니다."
+2. **동아리 활동**:
+   - "IT 클럽에서 웹 개발 프로젝트에 참여하여 HTML, CSS, JavaScript 등을 활용해 웹사이트를 제작하였습니다. 이 과정에서 팀원들과 협력하며 문제 해결 능력을 기르게 되었습니다."
+3. **진로활동**:
+   - "IT 관련 진로 탐색을 위해 IT 전문가와 면담을 진행하였고, 다양한 IT 분야의 특성을 이해하였습니다. 이를 통해 소프트웨어 융합학과에 대한 열정을 더욱 확신하게 되었습니다."
+### 결론
+- **면접 준비**: 지원동기, 학업계획, 학업역량 등 면접 질문 공통문항을 철저히 준비해야 합니다.
+- **서류 준비**: 세특 내용을 구체적으로 기재하여 실제 경험과 일치하도록 하여 높은 점수를 받도록 노력해야 합니다.
+이러한 준비가 충분하면, 소프트웨어융합학과의 입학에 큰 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.04551332825984541</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 ICT융합공과대학 소프트웨어공학부에 대한 정보를 바탕으로 분석해보겠습니다.
+- **모집 인원**: 30명
+- **지원 인원**: 146명
+- **경쟁률**: 4.87
+- **충원 합격 (후보순위)**: 63명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 330.11
+- **영어 등급의 평균**: 3.30
+이 정보를 바탕으로, 정시 성적이 4.08이라면:
+1. **경쟁률**: 현재 경쟁률은 4.87이며, 이는 상당히 높습니다.
+2. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 지원자의 평균 점수가 330.11이므로, 4.08은 이보다 낮습니다.
+3. **영어 등급**: 평균 영어 등급이 3.30으로, 4.08보다 높으므로 이 부분에서는 유리합니다.
+따라서, 정시 성적이 4.08이라면 경쟁률과 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합에서 약간의 불리함이 있습니다. 그러나 영어 등급에서는 유리한 점이 있으므로, 충분히 가능성이 있지만 매우 높은 경쟁률을 고려하면 낮은 확률일 수 있습니다.
+**추천 사항:**
+1. **추가 지원**: 다른 대학이나 전공에 추가 지원하여 보다 안전한 학교를 준비하는 것이 좋습니다.
+2. **면접 및 서류 준비**: 면접과 서류 평가에서도 좋은 성적을 받기 위해 노력해야 합니다.
+결론적으로, 가능하지만 매우 높은 경쟁률을 고려하면 낮은 확률입니다. 추가 지원을 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.1364060369098688</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과의 정시 모집에서 최종 등록자들의 경쟁률과 충원 합격자를 살펴보면, 다음과 같은 특징이 있습니다:
+1. **소프트웨어공학부**:
+   - 모집 인원: 30명
+   - 지원 인원: 146명
+   - 경쟁률: 4.87
+   - 충원 합격 (후보순위): 63명
+2. **소프트웨어융합학과**:
+   - 모집 인원: 7명
+   - 지원 인원: 7명
+   - 경쟁률: 1.00 (매우 낮음)
+   - 충원 합격 (후보순위): 7명
+이러한 데이터를 바탕으로, 소프트웨어융합학과의 경우 모집 인원이 매우 적고 지원 인원도 많지 않기 때문에 경쟁률은 상대적으로 낮습니다. 따라서 평균 등급을 5등급으로 여기는 것은 현실성이 떨어질 수 있습니다.
+**추천 절차:**
+1. **성적 분석**: 현재의 성적과 모집 단위별 평균 등급을 비교하여 자신의 위치를 파악합니다.
+2. **경쟁률 확인**: 각 모집단위별 경쟁률을 확인하고, 자신의 성적이 어느 정도 경쟁력을 갖추고 있는지 판단합니다.
+3. **면접 준비**: 소프트웨어융합학과는 면접이 포함되어 있으므로, 전공적합성과 학업역량 등을 강조할 수 있는 준비를 합니다.
+따라서, 현재의 성적이 5등급이라면, 소프트웨어융합학과에 지원하는 것은 현실적으로 어려울 수 있습니다. 다른 모집단위나 전형을 고려해보는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.1380742661361702</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 수능 등급은 상당히 좋은 점수입니다. 하지만 동의대학교 신소재공학과에 입학하기 위해서는 여러 요인을 고려해야 합니다.
+1. **모집 인원 및 지원자 수**: 신소재공학과는 모집 인원이 56명이고, 지원 인원은 81명으로 경쟁률이 약 1.45입니다. 이는 상대적으로 낮은 경쟁률을 보여줍니다.
+2. **평균 등급**: 제공된 데이터에서 신소재공학과의 지원자들의 평균 수능 등급은 5.06이며, 표준 편차는 1.22입니다. 이는 동일한 수준의 경쟁력을 가진 지원자가 많다는 것을 의미합니다.
+3. **개별 지원자의 성적 분포**: 지원자들의 수능 등급이 평균적으로 5.06이라는 점을 고려하면, 4.28은 약간 낮은 편입니다. 하지만 표준 편차가 1.22라는 것은 많은 지원자가 이보다 낮은 등급을 받았다는 것을 의미합니다.
+따라서, 4.28의 수능 등급으로 신소재공학과에 입학할 가능성은 있습니다만, 확실한 보장은 아닙니다. 경쟁률이 낮고 모집 인원도 많기 때문에 좋은 성적을 가진 지원자들이 많이 있을 것입니다.
+추천 사항:
+- **추가적인 준비**: 실기나 프로젝트 등 추가적인 평가 요소를 준비해보세요.
+- **면접 준비**: 면접에서도 좋은 점수를 받을 수 있도록 준비하세요.
+- **학생부 및 추천서**: 학생부와 추천서 등을 잘 준비하여 지원자의 전반적인 역량을 보여주세요.
+결론적으로, 4.28의 수능 등급으로 신소재공학과에 입학할 수는 있지만, 확실한 보장은 아닙니다. 추가적인 노력이 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.1751966051454834</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>一般的地，对于通过普通高考入学的学生来说，并不需要提交个人陈述（自述）。根据提供的信息，在“나군 수능(일반학생전형)”（即普通学生高考类别）中，主要的评估因素是：
+1. **国语、数学和英语成绩**：这些科目占了总评分的大比例。
+2. **学科等级平均分**：包括国语、数学、英语、社会（含历史/道德）、科学等科目的等级平均分。
+3. **其他科目标准转换分数的总和**：如国语、数学、英语、社会、科学等科目的标准转换分数之和。
+因此，对于“나군 수능(일반학생전형)”类别来说，并没有提到需要提交个人陈述或自述。主要依据是学生的高考成绩和其他相关科目成绩进行评估。
+如果你有特殊情况或者想要补充一些个人信息来帮助招生委员会更好地了解你的情况，可以考虑在申请时提供一份简短的个人介绍，但并不是强制性的要求。如果有任何疑问，建议直接访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取最新信息或咨询学校相关部门。
+希望这些信息对你有帮助！</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.07898089171974522</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5 등급을 받으셨다면, 이는 좋은 성적입니다. 하지만 추가모집에 합격할 확률은 여러 요인에 따라 달라질 수 있습니다.
+1. **모집단위와 경쟁률**: 각 단과대학의 모집단위별로 지원자 수와 모집 인원이 다르므로, 경쟁률이 매우 높을 수도 있고 낮을 수도 있습니다.
+2. **성적 평균**: 해당 단과대학에서 4.5 등급은 평균 이상의 점수일 것입니다. 하지만 다른 지원자의 성적이 더 높다면 경쟁력이 줄어들 수 있습니다.
+3. **가산점**: 일부 모집단위에서는 수학 가산점이 적용되므로, 이 부분을 고려해야 합니다.
+4. **전형방법**: 각 전형 방식(일반학생전형, 실기/실적, 학생부종합 등)에 따라 성적이 아닌 다른 요소들도 중요하게 작용할 수 있습니다.
+5. **추가모집 가능성**: 추가모집이 열릴 경우, 기회는 있지만 확률은 낮을 수 있습니다. 추가모집의 경우 경쟁률이 높아질 가능성이 있으며, 이미 충원된 모집단위에서는 더 어렵습니다.
+6. **학생부 등 기타 자료**: 일부 전형에서는 학생부나 면접 등의 결과도 중요한 역할을 합니다.
+따라서 4.5 등급으로 추가모집에 지원하더라도, 확실한 합격은 보장되지 않습니다. 하지만 좋은 성적을 가지고 있으므로, 가능한 모든 기회를 살펴보는 것이 좋습니다. 추가모집 정보와 일정을 확인하고, 해당 단과대학의 전형방법을 잘 이해하는 것이 중요합니다.
+추가로, 동의대학교의 웹사이트(https://ipsi.deu.ac.kr/main.do)에서 최신 정보를 확인하거나, 입학처에 문의하시면 더 구체적인 조언을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.2131554833413381</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과와 고분자나노공학과의 모집인원 및 지원 인원을 보면, 경쟁률은 각각 56명 중 81명이 지원하여 1.45배로 높습니다.
+수능 성적에 대한 정보는 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 271.64
+- 영어 등급의 평균은 5.06
+이러한 정보를 바탕으로 추정해보면, 신소재공학과에 지원하기 위해서는 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균 이상의 성적이 필요할 것으로 보입니다. 
+따라서 270점대 중후반에서 280점대 초반까지의 수능 점수가 필요할 것 같습니다.
+하지만 정확한 등급은 동의대학교 입학처 홈페이지나 공식 안내 자료를 확인하는 것이 가장 정확합니다. 해당 페이지에서는 최종 합격者的，你的问题翻译成中文是：东义大学的新材料学院在普通高考招生时需要多少等级才能被录取？根据提供的信息，2024年东义大学新材料系和高分子纳米系的招生人数分别为56人，申请人数为81人，竞争比为1.45。从成绩来看：
+- 国语+数学+选修（含加分）标准转换总分平均值为271.64
+- 英语等级平均分为5.06
+根据这些信息，可以推测新材料系的录取分数线大约在270到280之间。但为了得到最准确的答案，请参考东义大学招生处官网或官方指南上的信息。</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.1172520661157025</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 특정 학과의 경쟁률과 충원 합격자 수, 표준 변환 점수 등이 제공되었습니다. 주어진 정보를 바탕으로 신소재공학과와 관련된 몇 가지 포인트를 살펴보겠습니다.
+1. **신소재공학과 2024년도 모집 상황**:
+   - 모집 인원: 56명
+   - 지원 인원: 81명
+   - 경쟁률: 1.45
+   - 충원 합격 (후보순위): 25명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 271.64
+2. **표준점수 환산**:
+   - 주어진 정보에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 271.64입니다.
+   - 이 점수가 447점으로 환산되는 것은 매우 높은 점수를 받았을 때 가능합니다.
+3. **작년 데이터와 비교**:
+   - 작년 신소재공학과의 표준 변환 점수 평균이 447점보다 약간 높았다면, 작년에 비해 작년보다 더 높은 점수가 필요했을 것입니다.
+   - 이는 매우 높은 수능 성적을 요구하는 상황임을 의미합니다.
+**가능성 분석**:
+- **경쟁률과 지원 인원**: 신소재공학과의 경쟁률이 1.45로 낮아, 작년보다 더 많은 지원자가 높은 점수를 받았을 가능성이 있습니다.
+- **표준 변환 점수 평균**: 주어진 정보에서 표준 변환 점수 평균이 271.64로 매우 낮습니다. 이는 작년에 비해 더 높은 점수가 필요했음을 의미합니다.
+따라서, 작년 신소재공학과의 표점이 447점보다 약간 높았다면, 현재 주어진 정보를 고려할 때 매우 높은 수능 성적을 요구하는 상황임을 감안하면, 작년에 비해 더 높은 점수가 필요했을 가능성이 있습니다. 그러나 이는 매우 희박한 경우로, 실제 작년 데이터와 현재 지원자의 성적이 어떻게 분포되어 있는지 확인해야 합니다.
+**결론**: 작년 신소재공학과의 표점이 447점보다 약간 높았다면, 가능성이 있지만 매우 낮은 확률입니다. 정확한 가능성 판단을 위해서는 작년 데이터와 현재 지원자의 성적 분포를 더 자세히 분석해야 합니다.
+추가 정보나 자세한 분석이 필요하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.07391279829548938</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2로 변환되면, 동의대학교 신소재공학부의 일반학생전형에서 합격 가능성은 낮지만 아직 불가능한 것은 아닙니다. 신소재공학부는 주로 수학과 과학 영역을 중점적으로 평가하므로, 성적 외에도 다음과 같은 요인들이 중요한 역할을 합니다:
+1. **학생부 평가**: 공동체역량, 학업역량, 전공적합성 등이 중요합니다. 특히, 신소재공학과 관련된 활동이나 경험, 연구 프로젝트 등을 잘 보여줄 수 있다면 이점은 크게 작용할 수 있습니다.
+2. **면접 성적**: 면접에서는 학업에 대한 흥미와 열정, 전공 적합성 등을 평가하므로 준비를 철저히 해야 합니다.
+3. **추천서 및 자기소개서**: 추천서는 교사나 지도교수의 평가를 받을 수 있으며, 자기소개서에서는 자신의 장점과 목표를 잘 표현해야 합니다.
+4. **추가 자격요건**: 일부 전형에서는 특별한 자격 요건이 있을 수 있으므로 해당 내용도 확인해 보세요.
+현재 성적만으로는 낮은 등급을 가지고 합격하기 어렵지만, 성적 외의 요인들을 잘 준비하고 활용한다면 기회를 잡을 수 있습니다. 따라서:
+- **학생부와 활동**: 관련 활동이나 프로젝트 경험을 자세히 작성해 보세요.
+- **면접 준비**: 면접 질문에 대한 답변을 미리 준비하고 연습하세요.
+- **추천서 및 자기소개서**: 교사나 지도교수의 추천과 자신의 목표를 잘 표현하는 것이 중요합니다.
+이러한 요인들을 고려하여 전반적인 지원 자질을 강화하면 합격 가능성은 높아질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.1469660007847285</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 수능 일반학생전형에 대한 최신 성적이 제공되지 않았습니다. 하지만, 이전 연도의 데이터를 바탕으로 추정해볼 수 있습니다.
+인공지능학과는 공과대학 소속이며, 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1)
+이전 연도의 데이터를 참고하면, 인공지능학과의 최고 경쟁률은 약 4.87:1이며, 평균적인 합격 점수는 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 306.69
+- 영어 등급의 평균: 4.17
+따라서, 인공지능학과에 지원을 고려한다면 다음과 같은 성적을 목표로 설정하는 것이 좋습니다:
+- 국어 표준점수: 약 120 - 135
+- 수학 표준점수: 약 120 - 140 (미적분 또는 기하)
+- 영어 등급: 최소 6등급 이상 추천, 7등급 이상을 목표로
+- 탐구 과목(사회탐구 또는 과학탐구) 표준점수: 약 90 - 120
+이러한 성적을 기반으로 준비하시면 좋은 결과를 얻을 수 있을 것입니다. 하지만, 최종적인 합격 가능성은 개인의 성적과 경쟁률 등 다양한 요인에 따라 달라질 수 있으므로, 정확한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+https://ipsi.deu.ac.kr/main.do
+이 사이트에서 최신 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.1774538950828995</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 점수는 상당히 높은 점수입니다. 하지만 추천받을 수 있는 학과와 지원 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집단위별 수능 반영 비율 및 가산점**:
+   - 동의대학교에서는 각 모집단위에 따라 수능 점수의 반영 비율이 다릅니다.
+   - 예를 들어, 인문사회과학대학이나 상경대학은 국어 + 수학 + 영어 등급 + 탐구 표준점수로 합산됩니다.
+2. **모집단위별 경쟁률**:
+   - 지원하고자 하는 모집단위의 경쟁률을 확인해야 합니다.
+   - 경쟁률이 높은 모집단위에서는 5.27이라는 점수가 상대적으로 유리할 수 있습니다.
+3. **모집인원 및 지원 인원**:
+   - 모집인원과 지원 인원의 비율도 중요합니다. 예를 들어, 모집인원이 적고 지원 인원이 많은 경우 경쟁률이 높아질 수 있습니다.
+4. **개별 학과의 특성**:
+   - 각 학과에 따라 필요한 성적 범위가 다릅니다. 예를 들어, 공학계열은 수학 점수가 중요할 수 있으며, 인문계열은 국어와 영어 등급이 더 중요할 수 있습니다.
+5. **추천받을 수 있는 모집단위**:
+   - 5.27이라는 점수로 추천받을 수 있는 학과는 공학계열이나 경영학과, 회계학과 등이 될 가능성이 높습니다.
+   - 예를 들어, 기계공학과나 조선해양공학과 등의 모집단위에서는 5.27이라는 점수가 상대적으로 유리할 수 있습니다.
+6. **추천받을 수 없는 모집단위**:
+   - 경쟁률이 매우 높고 모집인원이 적은 학과(예: 한의예과)에서는 5.27이라는 점수로 추천받기 어렵습니다.
+따라서, 정확한 판단을 위해서는 동의대학교의 각 모집단위별 수능 반영 비율 및 가산점, 경쟁률 등을 확인하시고, 지원하고자 하는 학과의 특성을 고려해야 합니다. 필요하다면, 동의대학교 입학처 웹사이트나 전화로 상세한 정보를 얻으시는 것이 좋습니다.
+추천받을 수 있는 모집단위와 그렇지 않은 모집단위를 구분하는 데 도움이 되기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.1590014811889927</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 수능 등급은 비교적 좋은 점수입니다. 하지만 소프ware 공학부에 지원할 때 다음과 같은 요소들을 고려해야 합니다:
+1. **경쟁률**: 소프ware 공학부의 경쟁률이 높습니다 (예: 4.87). 따라서 4.2 등급으로 충분히 합격 가능성을 높일 수 있지만, 확실한 것은 아닙니다.
+2. **전체 평균 점수**: 주어진 데이터에서 소프ware 공학부의 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다. 이보다 낮은 점수가 있으므로, 4.2 등급으로도 가능성이 있습니다.
+3. **영어 등급**: 영어 등급이 3.77이며, 이는 중간 수준입니다. 좋은 영어 실력이 있다면 이 부분에서 우위를 가져올 수 있습니다.
+4. **전공적합성**: 지원자의 전공적합성을 입학사정관들이 평가할 것입니다. 이 부분에서는 창의적 체험활동이나 관련 학업 경험 등을 강조해야 합니다.
+5. **면접 성적**: 면접에서도 좋은 점수를 받는 것이 중요합니다 (40% 반영).
+6. **서류평가**: 서류 평가에서 공동체역량, 학업역량, 전공적합성을 잘 보여줄 수 있어야 합니다.
+따라서 4.2 등급으로 소프ware 공학부에 지원하는 것은 가능성이 있지만, 경쟁률이 높고 충원 합격자수가 많기 때문에 확실한 합격을 보장하기는 어렵습니다. 최선의 결과를 얻기 위해서는 전반적인 준비와 입학사정관들의 평가 기준에 맞춰서 지원해야 합니다.
+추천 사항:
+- 면접 준비를 철저히 하세요.
+- 서류 제출 시 관련 활동과 경험을 자세하게 설명하세요.
+- 학교생활기록부에서 창의적 체험활동, 교과학습발달상황 등을 잘 보여주세요.
+더 자세한 정보나 도움이 필요하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.07533136576121878</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수는 영어 등급으로 보이는데, 이 점수가 화학환경공학부의 일반학생전형에 충분한지 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. **모집단위와 전형방법**: 화학환경공학부의 정시 모집 단과대학과 모집단위, 그리고 해당 모집단위의 전형 방법을 확인해야 합니다.
+2. **성적 산출 방식**: 동의대학교의 성적 산출 방식이 어떻게 이루어지는지 이해하는 것이 중요합니다. 예를 들어, 국어, 수학, 영어 등급, 탐구 과목 등 각 영역별로 어떤 점수를 반영하는지 확인해야 합니다.
+3. **최소 합격 기준**: 해당 모집단위의 최소 합격 기준 점수를 파악해야 합니다. 이는 일반적으로 국어, 수학, 영어 등급, 탐구 과목 등 각 영역별로 설정됩니다.
+4. **등급 변환표**: 동의대학교에서 사용하는 영어 등급 변환 표를 확인해야 합니다. 3.92라는 점수가 실제 등급은 무엇인지 파악해야 합니다.
+5. **경쟁률과 지원자 수**: 해당 모집단위의 경쟁률과 지원자 수를 고려하여, 현재 점수로 합격 가능성을 판단할 수 있습니다.
+만약 화학환경공학부의 일반학생전형에 대한 자세한 정보가 있다면, 그 정보를 바탕으로 3.92라는 점수가 충분한지 판단할 수 있을 것입니다. 만약 구체적인 정보가 없다면, 동의대학교 입시 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조하거나 관계자에게 문의하는 것이 좋습니다.
+예를 들어, 화학환경공학부의 일반학생전형에 대한 성적 산출 방식과 최소 합격 기준을 확인한 후, 3.92라는 점수가 해당 기준을 충족하고 있는지 판단할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.1119349111242849</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 화학공학과, 환경공학과, 응용화학과로 모집을 진행하고 있으며, 이들 학과는 수능(일반학생전형)으로 지원이 가능합니다.
+주요 정보를 요약하면 다음과 같습니다:
+1. **모집단위**: 화학공학과, 환경공학과, 응용화학과
+2. **모집인원**: 101명 (화학공학과 + 환경공학과 + 응용화학과)
+3. **지원 인원**: 122명
+4. **경쟁률**: 1.21
+5. **국어+수학+탐구(가산점 포함) 표준 변환 점수 합 평균**: 269.13
+6. **국어+수학+탐구(가산점 포함) 표준 변환 점수 합 표준 편차**: 24.49
+당신의 정시 성적 4.25는 수능 일반학생전형에서 평균적인 점수보다 약간 낮습니다 (평균은 269.13). 그러나 경쟁률이 1.21로 낮고, 지원 인원도 많지 않기 때문에 여전히 가능성이 있습니다.
+**추천 사항:**
+- **성적 평가**: 수능 성적이 중요한 요소지만, 학생부와 실기 등 다른 평가 항목들도 고려됩니다.
+- **학생부 및 추천서**: 좋은 학생부 성적과 추천서를 준비하여 지원 경쟁력을 높일 수 있습니다.
+- **면접 준비**: 면접을 포함한 전형 요소도 중요하므로, 관련 내용에 대해 잘 준비해두세요.
+**결론:**
+당신의 정시 성적이 4.25라면, 화학공학과, 환경공학과, 응용화학과로 수능 일반학생전형으로 지원하는 것은 가능합니다. 그러나 경쟁률이 낮지 않으므로, 최선을 다해 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.1500915399318961</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2의 수능 점수는 영화학과의 경쟁률을 고려할 때 상대적으로 낮은 점수입니다. 하지만 합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **전형 유형**: 영화학과는 주로 실기/실적 위주 또는 학생부종합 전형으로 모집되므로, 수능 점수가 낮더라도 다른 평가 항목에서 좋은 성적이 나와야 합니다.
+2. **실기 성적**: 만약 실기가 포함된 전형이라면, 해당 실기 성적을 확인해야 합니다. 예를 들어, 영화학과는 필름제작 실기 등이 요구될 수 있습니다.
+3. **학생부 평가**: 학생부에서의 활동 및 성적이 중요합니다. 창의성, 팀워크, 학업태도 등을 잘 보여주는 것이 유리할 것입니다.
+4. **추천서나 자기소개서 등 서류평가**: 이 부분에서도 좋은 점수를 받을 수 있도록 준비해야 합니다.
+5. **경쟁률 및 모집인원**: 영화학과의 경쟁률이 높다면, 낮은 수능 점수라도 다른 평가 항목에서 우수한 성적을 보여주면 합격 가능성은 있습니다.
+6. **대학별 정책**: 각 대학마다 전형 요소 반영 비율이 다르므로, 해당 대학의 정시 모집요강을 꼭 확인해야 합니다.
+따라서 4.2의 수능 점수만으로는 확실한 합격을 보장할 수 없습니다. 다른 평가 항목에서 좋은 성적을 얻어야 하며, 대학별 전형 요건과 경쟁률 등을 종합적으로 고려해야 합니다.
+추천드리면, 다음과 같은 준비를 해보세요:
+- 실기 과목의 성적을 확인하고 필요하다면 추가로 준비해보세요.
+- 학생부에서 창의성과 팀워크를 잘 보여주는 활동을 강조하세요.
+- 자기소개서와 추천서 등을 작성할 때 수능 점수보다는 다른 평가 항목에 중점을 두세요.
+더 자세한 정보나 도움이 필요하시면, 해당 대학의 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.09073501808423236</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 면접평가 방법에서 구분되어 있으며, 각 단계별로 수험생의 답변 내용을 바탕으로 정성적이고 종합적으로 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.7121745908144024</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.3990133138301413</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.293977160429408</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.2260050285945086</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.3464952371297745</v>
+      <c r="D305" t="n">
+        <v>0.3063318342846859</v>
       </c>
     </row>
   </sheetData>
